--- a/Experimental_scripts/Lists/repswitch_V2L2.xlsx
+++ b/Experimental_scripts/Lists/repswitch_V2L2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79293E83-A5D0-40FE-BB02-9E957EC79369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F82B69-F7C4-4103-9DBF-0F4C5D419F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,208 +230,97 @@
     <t>block</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_340.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_338.png</t>
-  </si>
-  <si>
     <t>regalo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_142.png</t>
   </si>
   <si>
     <t>vaso</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_498.png</t>
-  </si>
-  <si>
     <t>taza</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_16.png</t>
   </si>
   <si>
     <t>cazador</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_719.png</t>
-  </si>
-  <si>
     <t>baño</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_169.png</t>
   </si>
   <si>
     <t>espalda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_687.png</t>
-  </si>
-  <si>
     <t>camisa</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_178.png</t>
   </si>
   <si>
     <t>puente</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_128.png</t>
-  </si>
-  <si>
     <t>muñeca</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_319.png</t>
   </si>
   <si>
     <t>vaca</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_728.png</t>
-  </si>
-  <si>
     <t>pulpo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_8.png</t>
   </si>
   <si>
     <t>pierna</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_48.png</t>
-  </si>
-  <si>
     <t>bombero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_135.png</t>
   </si>
   <si>
     <t>traje</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_19.png</t>
-  </si>
-  <si>
     <t>pavo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_446.png</t>
   </si>
   <si>
     <t>cerdo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_552.png</t>
-  </si>
-  <si>
     <t>manzana</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_517.png</t>
   </si>
   <si>
     <t>cuerda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_30.png</t>
-  </si>
-  <si>
     <t>granja</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_199.png</t>
   </si>
   <si>
     <t>falda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_152.png</t>
-  </si>
-  <si>
     <t>caracol</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_175.png</t>
   </si>
   <si>
     <t>pintor</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_264.png</t>
-  </si>
-  <si>
     <t>mano</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_235.png</t>
   </si>
   <si>
     <t>aguja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_271.png</t>
-  </si>
-  <si>
     <t>conejo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_610.png</t>
   </si>
   <si>
     <t>miel</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_464.png</t>
-  </si>
-  <si>
     <t>goma</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_320.png</t>
   </si>
   <si>
     <t>iglesia</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_35.png</t>
-  </si>
-  <si>
     <t>oreja</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_242.png</t>
   </si>
   <si>
     <t>cartero</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_576.png</t>
-  </si>
-  <si>
     <t>guante</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_673.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_590.png</t>
   </si>
   <si>
     <t>Extra1</t>
@@ -452,13 +341,124 @@
     <t>Extra4</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_381.png</t>
-  </si>
-  <si>
     <t>fresa</t>
   </si>
   <si>
     <t>trial_no</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_673.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_590.png</t>
   </si>
 </sst>
 </file>
@@ -1354,13 +1354,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E92D3D7-C350-4A57-A114-6F6E489370A3}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>58</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>55</v>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M2" s="6">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>52</v>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1</v>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>2</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>2</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>2</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>2</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>2</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>2</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>2</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>2</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>2</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>2</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>2</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>2</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>2</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>2</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>2</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>2</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>2</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>1</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>2</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>2</v>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>2</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>2</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>2</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1</v>
@@ -5548,10 +5548,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>2</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>2</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>2</v>
@@ -5856,10 +5856,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>2</v>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>2</v>
@@ -6115,10 +6115,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1</v>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>2</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>56</v>
@@ -6303,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>57</v>
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M98" s="3">
         <v>0</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>2</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>2</v>
@@ -6531,10 +6531,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>2</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>53</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>54</v>
@@ -6666,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M103" s="19">
         <v>0</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>52</v>
@@ -6717,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M104" s="6">
         <v>0</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>53</v>
@@ -6768,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M105" s="3">
         <v>0</v>
@@ -6786,10 +6786,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1</v>
@@ -6839,10 +6839,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>1</v>
@@ -6890,10 +6890,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>2</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>1</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>2</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>1</v>
@@ -7149,10 +7149,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>2</v>
@@ -7200,10 +7200,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1</v>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>2</v>
@@ -7304,10 +7304,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1</v>
@@ -7457,10 +7457,10 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>2</v>
@@ -7508,10 +7508,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>2</v>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>2</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1</v>
@@ -7663,10 +7663,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>2</v>
@@ -7714,10 +7714,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>2</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>2</v>
@@ -7818,10 +7818,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1</v>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>2</v>
@@ -7924,10 +7924,10 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>2</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1</v>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1</v>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>2</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>2</v>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1</v>
@@ -8234,10 +8234,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>2</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>2</v>
@@ -8338,10 +8338,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>1</v>
@@ -8389,10 +8389,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>2</v>
@@ -8440,10 +8440,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1</v>
@@ -8491,10 +8491,10 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1</v>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>2</v>
@@ -8595,10 +8595,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>2</v>
@@ -8646,10 +8646,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>2</v>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1</v>
@@ -8750,10 +8750,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>2</v>
@@ -8801,10 +8801,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1</v>
@@ -8854,10 +8854,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>1</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>1</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>2</v>
@@ -9009,10 +9009,10 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>1</v>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>54</v>
@@ -9146,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M151" s="3">
         <v>0</v>
@@ -9164,10 +9164,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1</v>
@@ -9268,10 +9268,10 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -9319,10 +9319,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>2</v>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>1</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>55</v>
@@ -9454,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M157" s="3">
         <v>0</v>
@@ -9472,10 +9472,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>1</v>
@@ -9525,10 +9525,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>2</v>
@@ -9576,10 +9576,10 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>2</v>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>2</v>
@@ -9682,10 +9682,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1</v>
@@ -9733,10 +9733,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>1</v>
@@ -9784,10 +9784,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>2</v>
@@ -9835,10 +9835,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1</v>
@@ -9888,10 +9888,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1</v>
@@ -9939,10 +9939,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>2</v>
@@ -9990,10 +9990,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1</v>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>56</v>
@@ -10180,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M171" s="3">
         <v>0</v>
@@ -10198,10 +10198,10 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>1</v>
@@ -10249,10 +10249,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>2</v>
@@ -10300,10 +10300,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>1</v>
@@ -10351,10 +10351,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>2</v>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>2</v>
@@ -10455,10 +10455,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>1</v>
@@ -10506,10 +10506,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>2</v>
@@ -10559,10 +10559,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>2</v>
@@ -10612,10 +10612,10 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>2</v>
@@ -10663,10 +10663,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>1</v>
@@ -10714,10 +10714,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>2</v>
@@ -10767,10 +10767,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>2</v>
@@ -10818,10 +10818,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>2</v>
@@ -10869,10 +10869,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>1</v>
@@ -10920,10 +10920,10 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>1</v>
@@ -10973,10 +10973,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>2</v>
@@ -11024,10 +11024,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>1</v>
@@ -11077,10 +11077,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>1</v>
@@ -11181,10 +11181,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>2</v>
@@ -11232,10 +11232,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>1</v>
@@ -11283,10 +11283,10 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>2</v>
@@ -11334,10 +11334,10 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>2</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>1</v>
@@ -11489,10 +11489,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1</v>
@@ -11540,7 +11540,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>57</v>
@@ -11573,7 +11573,7 @@
         <v>2</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M198" s="3">
         <v>0</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>1</v>
@@ -11642,10 +11642,10 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>1</v>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>2</v>
@@ -11744,10 +11744,10 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>2</v>
@@ -11795,10 +11795,10 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>2</v>
@@ -11846,10 +11846,10 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>1</v>
@@ -11897,10 +11897,10 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
@@ -11948,10 +11948,10 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>2</v>
@@ -11999,10 +11999,10 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>1</v>
@@ -12050,10 +12050,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>1</v>
@@ -12103,10 +12103,10 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>1</v>
@@ -12154,10 +12154,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>2</v>
@@ -12207,10 +12207,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>1</v>
@@ -12260,10 +12260,10 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>1</v>
@@ -12311,10 +12311,10 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>2</v>
@@ -12362,10 +12362,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>1</v>
@@ -12415,10 +12415,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>2</v>
@@ -12466,10 +12466,10 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>2</v>
@@ -12519,10 +12519,10 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>2</v>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>1</v>
@@ -12623,10 +12623,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>1</v>
@@ -12676,10 +12676,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>2</v>
@@ -12727,10 +12727,10 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>2</v>
@@ -12778,10 +12778,10 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>1</v>
@@ -12829,10 +12829,10 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>2</v>
@@ -12880,10 +12880,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>2</v>
@@ -12931,10 +12931,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>1</v>
@@ -12984,10 +12984,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>2</v>
@@ -13037,10 +13037,10 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>2</v>
@@ -13088,10 +13088,10 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>2</v>
@@ -13141,10 +13141,10 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>1</v>
@@ -13192,10 +13192,10 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>2</v>
@@ -13243,10 +13243,10 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>2</v>
@@ -13296,10 +13296,10 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>2</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>1</v>
@@ -13400,10 +13400,10 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>2</v>
@@ -13453,10 +13453,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>2</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>2</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>56</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M237" s="3">
         <v>0</v>
@@ -13606,10 +13606,10 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>2</v>
@@ -13659,10 +13659,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>2</v>
@@ -13712,10 +13712,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>1</v>
@@ -13763,10 +13763,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>1</v>
@@ -13814,10 +13814,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>1</v>
@@ -13867,10 +13867,10 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>2</v>
@@ -13918,10 +13918,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>2</v>
@@ -13969,10 +13969,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>2</v>
@@ -14022,10 +14022,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>1</v>
@@ -14073,10 +14073,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>1</v>
@@ -14124,10 +14124,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>1</v>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>2</v>
@@ -14226,10 +14226,10 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>1</v>
@@ -14279,10 +14279,10 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>1</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>55</v>
@@ -14363,7 +14363,7 @@
         <v>2</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M252" s="3">
         <v>0</v>
@@ -14381,10 +14381,10 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>1</v>
@@ -14432,10 +14432,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>1</v>
@@ -14485,10 +14485,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>2</v>
@@ -14536,7 +14536,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B256" s="14" t="s">
         <v>57</v>
@@ -14569,7 +14569,7 @@
         <v>2</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M256" s="2">
         <v>0</v>
@@ -14587,10 +14587,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>2</v>
@@ -14638,10 +14638,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>1</v>
@@ -14689,10 +14689,10 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>1</v>
@@ -14740,10 +14740,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>1</v>
@@ -14793,10 +14793,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>2</v>
@@ -14844,10 +14844,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>2</v>
@@ -14897,10 +14897,10 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>2</v>
@@ -14950,10 +14950,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>1</v>
@@ -15001,10 +15001,10 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>2</v>
@@ -15052,10 +15052,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>1</v>
@@ -15105,10 +15105,10 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>1</v>
@@ -15156,10 +15156,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>1</v>
@@ -15207,10 +15207,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>2</v>
@@ -15260,10 +15260,10 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>1</v>
@@ -15313,10 +15313,10 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>1</v>
@@ -15364,10 +15364,10 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>1</v>
@@ -15417,10 +15417,10 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>2</v>
@@ -15468,10 +15468,10 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>1</v>
@@ -15519,10 +15519,10 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>2</v>
@@ -15570,10 +15570,10 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>2</v>
@@ -15621,10 +15621,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>2</v>
@@ -15672,10 +15672,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>1</v>
@@ -15723,10 +15723,10 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>2</v>
@@ -15776,10 +15776,10 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>2</v>
@@ -15827,10 +15827,10 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>2</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>52</v>
@@ -15913,7 +15913,7 @@
         <v>2</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M282" s="3">
         <v>0</v>
@@ -15931,10 +15931,10 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>1</v>
@@ -15984,10 +15984,10 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>2</v>
@@ -16035,10 +16035,10 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>2</v>
@@ -16086,10 +16086,10 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>2</v>
@@ -16139,10 +16139,10 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>1</v>
@@ -16190,10 +16190,10 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>2</v>
@@ -16241,10 +16241,10 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>1</v>
@@ -16294,10 +16294,10 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>1</v>
@@ -16345,10 +16345,10 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>1</v>
@@ -16396,10 +16396,10 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>2</v>
@@ -16447,10 +16447,10 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>1</v>
@@ -16498,10 +16498,10 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>2</v>
@@ -16551,10 +16551,10 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>1</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B296" s="11" t="s">
         <v>53</v>
@@ -16635,7 +16635,7 @@
         <v>2</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M296" s="3">
         <v>0</v>
@@ -16653,10 +16653,10 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>1</v>
@@ -16704,10 +16704,10 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>1</v>
@@ -16757,10 +16757,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>1</v>
@@ -16808,10 +16808,10 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>2</v>
@@ -16861,10 +16861,10 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>1</v>
@@ -16912,10 +16912,10 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>1</v>
@@ -16965,10 +16965,10 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>2</v>
@@ -17016,7 +17016,7 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>54</v>
@@ -17049,7 +17049,7 @@
         <v>2</v>
       </c>
       <c r="L304" s="5" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M304" s="3">
         <v>0</v>
@@ -17067,10 +17067,10 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>2</v>
@@ -17118,10 +17118,10 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>2</v>
@@ -17171,10 +17171,10 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -17222,7 +17222,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>57</v>
@@ -17255,7 +17255,7 @@
         <v>2</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M308" s="6">
         <v>0</v>
@@ -17273,10 +17273,10 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>1</v>
@@ -17326,10 +17326,10 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>1</v>
@@ -17377,10 +17377,10 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>2</v>
@@ -17428,10 +17428,10 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>1</v>
@@ -17481,10 +17481,10 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>1</v>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B314" s="11" t="s">
         <v>56</v>
@@ -17565,7 +17565,7 @@
         <v>2</v>
       </c>
       <c r="L314" s="5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M314" s="3">
         <v>0</v>
@@ -17583,10 +17583,10 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>1</v>
@@ -17634,10 +17634,10 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>1</v>
@@ -17687,10 +17687,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>2</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>2</v>
@@ -17791,10 +17791,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>2</v>
@@ -17844,10 +17844,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>1</v>
@@ -17895,10 +17895,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>1</v>
@@ -17946,10 +17946,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>2</v>
@@ -17997,10 +17997,10 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>1</v>
@@ -18048,10 +18048,10 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>2</v>
@@ -18101,10 +18101,10 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>2</v>
@@ -18152,10 +18152,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>1</v>
@@ -18205,10 +18205,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>2</v>
@@ -18258,10 +18258,10 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>2</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>1</v>
@@ -18360,10 +18360,10 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>2</v>
@@ -18411,10 +18411,10 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>2</v>
@@ -18462,10 +18462,10 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>1</v>
@@ -18513,10 +18513,10 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>2</v>
@@ -18566,10 +18566,10 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>2</v>
@@ -18617,10 +18617,10 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>2</v>
@@ -18668,10 +18668,10 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>1</v>
@@ -18719,10 +18719,10 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>2</v>
@@ -18772,10 +18772,10 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>2</v>
@@ -18823,10 +18823,10 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>2</v>
@@ -18874,10 +18874,10 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>1</v>
@@ -18925,10 +18925,10 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>1</v>
@@ -18978,10 +18978,10 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>1</v>
@@ -19031,10 +19031,10 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>2</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>2</v>
@@ -19135,10 +19135,10 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>1</v>
@@ -19186,10 +19186,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>2</v>
@@ -19237,10 +19237,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>1</v>
@@ -19288,10 +19288,10 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>2</v>
@@ -19339,10 +19339,10 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>1</v>
@@ -19392,10 +19392,10 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>1</v>
@@ -19443,10 +19443,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>2</v>
@@ -19494,10 +19494,10 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>1</v>
@@ -19547,10 +19547,10 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>1</v>
@@ -19598,10 +19598,10 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>2</v>
@@ -19649,10 +19649,10 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>1</v>
@@ -19700,10 +19700,10 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>1</v>
@@ -19751,10 +19751,10 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>2</v>
@@ -19802,7 +19802,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B358" s="14" t="s">
         <v>54</v>
@@ -19835,7 +19835,7 @@
         <v>2</v>
       </c>
       <c r="L358" s="9" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M358" s="19">
         <v>0</v>
@@ -19853,10 +19853,10 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>2</v>
@@ -19904,10 +19904,10 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>2</v>
@@ -19957,10 +19957,10 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>1</v>
@@ -20008,10 +20008,10 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>1</v>
@@ -20059,10 +20059,10 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>1</v>
@@ -20112,10 +20112,10 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>2</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>53</v>
@@ -20196,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="L365" s="5" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M365" s="3">
         <v>0</v>
@@ -20214,10 +20214,10 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>2</v>
@@ -20265,10 +20265,10 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>1</v>
@@ -20316,10 +20316,10 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>2</v>
@@ -20367,10 +20367,10 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>1</v>
@@ -20420,10 +20420,10 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>1</v>
@@ -20471,10 +20471,10 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>1</v>
@@ -20522,10 +20522,10 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>2</v>
@@ -20573,10 +20573,10 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>1</v>
@@ -20626,10 +20626,10 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>1</v>
@@ -20677,10 +20677,10 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>1</v>
@@ -20728,10 +20728,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>2</v>
@@ -20779,10 +20779,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>1</v>
@@ -20830,7 +20830,7 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B378" s="11" t="s">
         <v>55</v>
@@ -20863,7 +20863,7 @@
         <v>2</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M378" s="3">
         <v>0</v>
@@ -20881,10 +20881,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>2</v>
@@ -20934,10 +20934,10 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>2</v>
@@ -20985,10 +20985,10 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>1</v>
@@ -21036,10 +21036,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>2</v>
@@ -21089,10 +21089,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>2</v>
@@ -21140,10 +21140,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>2</v>
@@ -21193,10 +21193,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>1</v>
@@ -21244,10 +21244,10 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>2</v>
@@ -21297,10 +21297,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>2</v>
@@ -21348,10 +21348,10 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>2</v>
@@ -21401,10 +21401,10 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>1</v>
@@ -21452,10 +21452,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>2</v>
@@ -21503,10 +21503,10 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>1</v>
@@ -21556,10 +21556,10 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>1</v>
@@ -21607,10 +21607,10 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>1</v>
@@ -21658,10 +21658,10 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>2</v>
@@ -21709,10 +21709,10 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>1</v>
@@ -21760,10 +21760,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>2</v>
@@ -21813,10 +21813,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>1</v>
@@ -21864,10 +21864,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>2</v>
@@ -21915,10 +21915,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>1</v>
@@ -21966,10 +21966,10 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>1</v>
@@ -22019,10 +22019,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>1</v>
@@ -22070,10 +22070,10 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>2</v>
@@ -22121,10 +22121,10 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>1</v>
@@ -22174,10 +22174,10 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>1</v>
@@ -22227,10 +22227,10 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>2</v>
@@ -22278,10 +22278,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>2</v>
@@ -22329,10 +22329,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>2</v>
@@ -22380,7 +22380,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B408" s="11" t="s">
         <v>52</v>
@@ -22413,7 +22413,7 @@
         <v>2</v>
       </c>
       <c r="L408" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M408" s="3">
         <v>0</v>
@@ -22431,10 +22431,10 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>2</v>
